--- a/app/planilhas/Total-cpo-d.xlsx
+++ b/app/planilhas/Total-cpo-d.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D_Muniz\Desktop\Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D_Muniz\Desktop\Projeto\teethGram\app\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFCFC35-F965-4E16-A78D-ADDD17BEA9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F423EA-6CAF-4055-85AC-00E0ECB9E9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{AFFBEBE6-A6BC-498C-A820-BBF450B005CB}"/>
   </bookViews>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>TOTAL Participantes</t>
   </si>
   <si>
-    <t xml:space="preserve">TOTAL </t>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -169,10 +172,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,7 +511,7 @@
   <dimension ref="A1:BA4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,6 +520,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" s="3">
         <v>18</v>
       </c>
@@ -579,40 +583,40 @@
       <c r="U1" s="3">
         <v>35</v>
       </c>
-      <c r="V1" s="11">
+      <c r="V1" s="3">
         <v>34</v>
       </c>
-      <c r="W1" s="11">
+      <c r="W1" s="3">
         <v>33</v>
       </c>
-      <c r="X1" s="11">
+      <c r="X1" s="3">
         <v>32</v>
       </c>
-      <c r="Y1" s="11">
+      <c r="Y1" s="3">
         <v>31</v>
       </c>
-      <c r="Z1" s="11">
+      <c r="Z1" s="3">
         <v>41</v>
       </c>
-      <c r="AA1" s="11">
+      <c r="AA1" s="3">
         <v>42</v>
       </c>
-      <c r="AB1" s="11">
+      <c r="AB1" s="3">
         <v>43</v>
       </c>
-      <c r="AC1" s="11">
+      <c r="AC1" s="3">
         <v>44</v>
       </c>
-      <c r="AD1" s="11">
+      <c r="AD1" s="3">
         <v>45</v>
       </c>
-      <c r="AE1" s="11">
+      <c r="AE1" s="3">
         <v>46</v>
       </c>
-      <c r="AF1" s="11">
+      <c r="AF1" s="3">
         <v>47</v>
       </c>
-      <c r="AG1" s="11">
+      <c r="AG1" s="3">
         <v>48</v>
       </c>
       <c r="AH1" s="1"/>
@@ -638,7 +642,7 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="5"/>
@@ -659,7 +663,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
-      <c r="U2" s="12"/>
+      <c r="U2" s="11"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
